--- a/Scripts de clases/base.xlsx
+++ b/Scripts de clases/base.xlsx
@@ -389,10 +389,10 @@
         <v>2021</v>
       </c>
       <c r="D2" t="n">
-        <v>14530</v>
+        <v>12658</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
@@ -406,10 +406,10 @@
         <v>2021</v>
       </c>
       <c r="D3" t="n">
-        <v>20974</v>
+        <v>24105</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -423,10 +423,10 @@
         <v>2021</v>
       </c>
       <c r="D4" t="n">
-        <v>37980</v>
+        <v>12092</v>
       </c>
       <c r="E4" t="n">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -440,10 +440,10 @@
         <v>2021</v>
       </c>
       <c r="D5" t="n">
-        <v>19042</v>
+        <v>31053</v>
       </c>
       <c r="E5" t="n">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -457,10 +457,10 @@
         <v>2021</v>
       </c>
       <c r="D6" t="n">
-        <v>49204</v>
+        <v>48797</v>
       </c>
       <c r="E6" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -474,10 +474,10 @@
         <v>2021</v>
       </c>
       <c r="D7" t="n">
-        <v>42305</v>
+        <v>24125</v>
       </c>
       <c r="E7" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -491,10 +491,10 @@
         <v>2021</v>
       </c>
       <c r="D8" t="n">
-        <v>19655</v>
+        <v>42804</v>
       </c>
       <c r="E8" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -508,10 +508,10 @@
         <v>2021</v>
       </c>
       <c r="D9" t="n">
-        <v>28279</v>
+        <v>12528</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -525,10 +525,10 @@
         <v>2021</v>
       </c>
       <c r="D10" t="n">
-        <v>36494</v>
+        <v>25907</v>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
@@ -542,10 +542,10 @@
         <v>2021</v>
       </c>
       <c r="D11" t="n">
-        <v>23451</v>
+        <v>22771</v>
       </c>
       <c r="E11" t="n">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +559,10 @@
         <v>2021</v>
       </c>
       <c r="D12" t="n">
-        <v>35070</v>
+        <v>31547</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>2021</v>
       </c>
       <c r="D13" t="n">
-        <v>25311</v>
+        <v>34998</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -593,10 +593,10 @@
         <v>2021</v>
       </c>
       <c r="D14" t="n">
-        <v>19219</v>
+        <v>39849</v>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -610,10 +610,10 @@
         <v>2021</v>
       </c>
       <c r="D15" t="n">
-        <v>39878</v>
+        <v>38828</v>
       </c>
       <c r="E15" t="n">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
@@ -627,10 +627,10 @@
         <v>2021</v>
       </c>
       <c r="D16" t="n">
-        <v>39151</v>
+        <v>22678</v>
       </c>
       <c r="E16" t="n">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -644,10 +644,10 @@
         <v>2021</v>
       </c>
       <c r="D17" t="n">
-        <v>49676</v>
+        <v>39864</v>
       </c>
       <c r="E17" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -661,10 +661,10 @@
         <v>2021</v>
       </c>
       <c r="D18" t="n">
-        <v>15491</v>
+        <v>36742</v>
       </c>
       <c r="E18" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         <v>2021</v>
       </c>
       <c r="D19" t="n">
-        <v>49983</v>
+        <v>39675</v>
       </c>
       <c r="E19" t="n">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -695,10 +695,10 @@
         <v>2021</v>
       </c>
       <c r="D20" t="n">
-        <v>16491</v>
+        <v>30206</v>
       </c>
       <c r="E20" t="n">
-        <v>137</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -712,10 +712,10 @@
         <v>2021</v>
       </c>
       <c r="D21" t="n">
-        <v>12090</v>
+        <v>39204</v>
       </c>
       <c r="E21" t="n">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
@@ -729,10 +729,10 @@
         <v>2022</v>
       </c>
       <c r="D22" t="n">
-        <v>30395</v>
+        <v>21978</v>
       </c>
       <c r="E22" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>2022</v>
       </c>
       <c r="D23" t="n">
-        <v>46771</v>
+        <v>33624</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -763,10 +763,10 @@
         <v>2022</v>
       </c>
       <c r="D24" t="n">
-        <v>42603</v>
+        <v>12716</v>
       </c>
       <c r="E24" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
@@ -780,10 +780,10 @@
         <v>2022</v>
       </c>
       <c r="D25" t="n">
-        <v>27216</v>
+        <v>33328</v>
       </c>
       <c r="E25" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26">
@@ -797,10 +797,10 @@
         <v>2022</v>
       </c>
       <c r="D26" t="n">
-        <v>13852</v>
+        <v>41548</v>
       </c>
       <c r="E26" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
@@ -814,10 +814,10 @@
         <v>2022</v>
       </c>
       <c r="D27" t="n">
-        <v>20386</v>
+        <v>26129</v>
       </c>
       <c r="E27" t="n">
-        <v>146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -831,10 +831,10 @@
         <v>2022</v>
       </c>
       <c r="D28" t="n">
-        <v>47814</v>
+        <v>18957</v>
       </c>
       <c r="E28" t="n">
-        <v>70</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -848,10 +848,10 @@
         <v>2022</v>
       </c>
       <c r="D29" t="n">
-        <v>22266</v>
+        <v>21330</v>
       </c>
       <c r="E29" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -865,10 +865,10 @@
         <v>2022</v>
       </c>
       <c r="D30" t="n">
-        <v>40485</v>
+        <v>20804</v>
       </c>
       <c r="E30" t="n">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31">
@@ -882,10 +882,10 @@
         <v>2022</v>
       </c>
       <c r="D31" t="n">
-        <v>21720</v>
+        <v>33927</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
@@ -899,10 +899,10 @@
         <v>2022</v>
       </c>
       <c r="D32" t="n">
-        <v>41962</v>
+        <v>39049</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33">
@@ -916,10 +916,10 @@
         <v>2022</v>
       </c>
       <c r="D33" t="n">
-        <v>36103</v>
+        <v>35322</v>
       </c>
       <c r="E33" t="n">
-        <v>107</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34">
@@ -933,10 +933,10 @@
         <v>2022</v>
       </c>
       <c r="D34" t="n">
-        <v>10416</v>
+        <v>17599</v>
       </c>
       <c r="E34" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -950,10 +950,10 @@
         <v>2022</v>
       </c>
       <c r="D35" t="n">
-        <v>35682</v>
+        <v>11805</v>
       </c>
       <c r="E35" t="n">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -967,10 +967,10 @@
         <v>2022</v>
       </c>
       <c r="D36" t="n">
-        <v>17376</v>
+        <v>41160</v>
       </c>
       <c r="E36" t="n">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -984,10 +984,10 @@
         <v>2022</v>
       </c>
       <c r="D37" t="n">
-        <v>38745</v>
+        <v>16808</v>
       </c>
       <c r="E37" t="n">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
@@ -1001,10 +1001,10 @@
         <v>2022</v>
       </c>
       <c r="D38" t="n">
-        <v>39516</v>
+        <v>45106</v>
       </c>
       <c r="E38" t="n">
-        <v>121</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
@@ -1018,10 +1018,10 @@
         <v>2022</v>
       </c>
       <c r="D39" t="n">
-        <v>39627</v>
+        <v>35834</v>
       </c>
       <c r="E39" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40">
@@ -1035,10 +1035,10 @@
         <v>2022</v>
       </c>
       <c r="D40" t="n">
-        <v>49056</v>
+        <v>13704</v>
       </c>
       <c r="E40" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41">
@@ -1052,10 +1052,10 @@
         <v>2022</v>
       </c>
       <c r="D41" t="n">
-        <v>42984</v>
+        <v>49545</v>
       </c>
       <c r="E41" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
@@ -1069,10 +1069,10 @@
         <v>2023</v>
       </c>
       <c r="D42" t="n">
-        <v>17283</v>
+        <v>16897</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43">
@@ -1086,10 +1086,10 @@
         <v>2023</v>
       </c>
       <c r="D43" t="n">
-        <v>40715</v>
+        <v>13061</v>
       </c>
       <c r="E43" t="n">
-        <v>147</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -1103,10 +1103,10 @@
         <v>2023</v>
       </c>
       <c r="D44" t="n">
-        <v>25718</v>
+        <v>39944</v>
       </c>
       <c r="E44" t="n">
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -1120,10 +1120,10 @@
         <v>2023</v>
       </c>
       <c r="D45" t="n">
-        <v>43752</v>
+        <v>37155</v>
       </c>
       <c r="E45" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1137,10 +1137,10 @@
         <v>2023</v>
       </c>
       <c r="D46" t="n">
-        <v>34033</v>
+        <v>47246</v>
       </c>
       <c r="E46" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47">
@@ -1154,10 +1154,10 @@
         <v>2023</v>
       </c>
       <c r="D47" t="n">
-        <v>16732</v>
+        <v>32211</v>
       </c>
       <c r="E47" t="n">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48">
@@ -1171,10 +1171,10 @@
         <v>2023</v>
       </c>
       <c r="D48" t="n">
-        <v>19178</v>
+        <v>44261</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
@@ -1188,10 +1188,10 @@
         <v>2023</v>
       </c>
       <c r="D49" t="n">
-        <v>20608</v>
+        <v>39747</v>
       </c>
       <c r="E49" t="n">
-        <v>11</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
@@ -1205,10 +1205,10 @@
         <v>2023</v>
       </c>
       <c r="D50" t="n">
-        <v>18478</v>
+        <v>41573</v>
       </c>
       <c r="E50" t="n">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
@@ -1222,10 +1222,10 @@
         <v>2023</v>
       </c>
       <c r="D51" t="n">
-        <v>43575</v>
+        <v>29029</v>
       </c>
       <c r="E51" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
@@ -1239,10 +1239,10 @@
         <v>2023</v>
       </c>
       <c r="D52" t="n">
-        <v>30074</v>
+        <v>48946</v>
       </c>
       <c r="E52" t="n">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53">
@@ -1256,10 +1256,10 @@
         <v>2023</v>
       </c>
       <c r="D53" t="n">
-        <v>27434</v>
+        <v>39428</v>
       </c>
       <c r="E53" t="n">
-        <v>78</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54">
@@ -1273,10 +1273,10 @@
         <v>2023</v>
       </c>
       <c r="D54" t="n">
-        <v>44468</v>
+        <v>36623</v>
       </c>
       <c r="E54" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55">
@@ -1290,10 +1290,10 @@
         <v>2023</v>
       </c>
       <c r="D55" t="n">
-        <v>18582</v>
+        <v>15654</v>
       </c>
       <c r="E55" t="n">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56">
@@ -1307,10 +1307,10 @@
         <v>2023</v>
       </c>
       <c r="D56" t="n">
-        <v>22014</v>
+        <v>45774</v>
       </c>
       <c r="E56" t="n">
-        <v>99</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57">
@@ -1324,10 +1324,10 @@
         <v>2023</v>
       </c>
       <c r="D57" t="n">
-        <v>48593</v>
+        <v>47744</v>
       </c>
       <c r="E57" t="n">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58">
@@ -1341,10 +1341,10 @@
         <v>2023</v>
       </c>
       <c r="D58" t="n">
-        <v>29360</v>
+        <v>49627</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
@@ -1358,10 +1358,10 @@
         <v>2023</v>
       </c>
       <c r="D59" t="n">
-        <v>48903</v>
+        <v>21193</v>
       </c>
       <c r="E59" t="n">
-        <v>121</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60">
@@ -1375,10 +1375,10 @@
         <v>2023</v>
       </c>
       <c r="D60" t="n">
-        <v>25252</v>
+        <v>23247</v>
       </c>
       <c r="E60" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61">
@@ -1392,10 +1392,10 @@
         <v>2023</v>
       </c>
       <c r="D61" t="n">
-        <v>16476</v>
+        <v>43734</v>
       </c>
       <c r="E61" t="n">
-        <v>41</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62">
@@ -1409,10 +1409,10 @@
         <v>2024</v>
       </c>
       <c r="D62" t="n">
-        <v>47191</v>
+        <v>19678</v>
       </c>
       <c r="E62" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63">
@@ -1426,10 +1426,10 @@
         <v>2024</v>
       </c>
       <c r="D63" t="n">
-        <v>40977</v>
+        <v>41516</v>
       </c>
       <c r="E63" t="n">
-        <v>129</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64">
@@ -1443,10 +1443,10 @@
         <v>2024</v>
       </c>
       <c r="D64" t="n">
-        <v>27661</v>
+        <v>11440</v>
       </c>
       <c r="E64" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
@@ -1460,10 +1460,10 @@
         <v>2024</v>
       </c>
       <c r="D65" t="n">
-        <v>19912</v>
+        <v>26744</v>
       </c>
       <c r="E65" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66">
@@ -1477,10 +1477,10 @@
         <v>2024</v>
       </c>
       <c r="D66" t="n">
-        <v>43390</v>
+        <v>28675</v>
       </c>
       <c r="E66" t="n">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67">
@@ -1494,10 +1494,10 @@
         <v>2024</v>
       </c>
       <c r="D67" t="n">
-        <v>34864</v>
+        <v>41483</v>
       </c>
       <c r="E67" t="n">
-        <v>52</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -1511,10 +1511,10 @@
         <v>2024</v>
       </c>
       <c r="D68" t="n">
-        <v>19833</v>
+        <v>21037</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
@@ -1528,10 +1528,10 @@
         <v>2024</v>
       </c>
       <c r="D69" t="n">
-        <v>48112</v>
+        <v>46284</v>
       </c>
       <c r="E69" t="n">
-        <v>58</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70">
@@ -1545,10 +1545,10 @@
         <v>2024</v>
       </c>
       <c r="D70" t="n">
-        <v>33678</v>
+        <v>12940</v>
       </c>
       <c r="E70" t="n">
-        <v>63</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71">
@@ -1562,10 +1562,10 @@
         <v>2024</v>
       </c>
       <c r="D71" t="n">
-        <v>23481</v>
+        <v>40418</v>
       </c>
       <c r="E71" t="n">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72">
@@ -1579,10 +1579,10 @@
         <v>2024</v>
       </c>
       <c r="D72" t="n">
-        <v>48359</v>
+        <v>38892</v>
       </c>
       <c r="E72" t="n">
-        <v>141</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
@@ -1596,10 +1596,10 @@
         <v>2024</v>
       </c>
       <c r="D73" t="n">
-        <v>29392</v>
+        <v>47871</v>
       </c>
       <c r="E73" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -1613,10 +1613,10 @@
         <v>2024</v>
       </c>
       <c r="D74" t="n">
-        <v>32703</v>
+        <v>43968</v>
       </c>
       <c r="E74" t="n">
-        <v>30</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75">
@@ -1630,10 +1630,10 @@
         <v>2024</v>
       </c>
       <c r="D75" t="n">
-        <v>30850</v>
+        <v>30724</v>
       </c>
       <c r="E75" t="n">
-        <v>115</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76">
@@ -1647,10 +1647,10 @@
         <v>2024</v>
       </c>
       <c r="D76" t="n">
-        <v>38767</v>
+        <v>28401</v>
       </c>
       <c r="E76" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77">
@@ -1664,10 +1664,10 @@
         <v>2024</v>
       </c>
       <c r="D77" t="n">
-        <v>17824</v>
+        <v>28946</v>
       </c>
       <c r="E77" t="n">
-        <v>17</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
@@ -1681,10 +1681,10 @@
         <v>2024</v>
       </c>
       <c r="D78" t="n">
-        <v>44433</v>
+        <v>11212</v>
       </c>
       <c r="E78" t="n">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79">
@@ -1698,10 +1698,10 @@
         <v>2024</v>
       </c>
       <c r="D79" t="n">
-        <v>12599</v>
+        <v>16219</v>
       </c>
       <c r="E79" t="n">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80">
@@ -1715,10 +1715,10 @@
         <v>2024</v>
       </c>
       <c r="D80" t="n">
-        <v>13631</v>
+        <v>46504</v>
       </c>
       <c r="E80" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81">
@@ -1732,10 +1732,10 @@
         <v>2024</v>
       </c>
       <c r="D81" t="n">
-        <v>14609</v>
+        <v>31358</v>
       </c>
       <c r="E81" t="n">
-        <v>97</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82">
@@ -1749,10 +1749,10 @@
         <v>2025</v>
       </c>
       <c r="D82" t="n">
-        <v>44869</v>
+        <v>39690</v>
       </c>
       <c r="E82" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83">
@@ -1766,10 +1766,10 @@
         <v>2025</v>
       </c>
       <c r="D83" t="n">
-        <v>26428</v>
+        <v>18596</v>
       </c>
       <c r="E83" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84">
@@ -1783,10 +1783,10 @@
         <v>2025</v>
       </c>
       <c r="D84" t="n">
-        <v>21492</v>
+        <v>19593</v>
       </c>
       <c r="E84" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85">
@@ -1800,10 +1800,10 @@
         <v>2025</v>
       </c>
       <c r="D85" t="n">
-        <v>46741</v>
+        <v>40736</v>
       </c>
       <c r="E85" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86">
@@ -1817,10 +1817,10 @@
         <v>2025</v>
       </c>
       <c r="D86" t="n">
-        <v>36249</v>
+        <v>41304</v>
       </c>
       <c r="E86" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87">
@@ -1834,10 +1834,10 @@
         <v>2025</v>
       </c>
       <c r="D87" t="n">
-        <v>48235</v>
+        <v>30410</v>
       </c>
       <c r="E87" t="n">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88">
@@ -1851,10 +1851,10 @@
         <v>2025</v>
       </c>
       <c r="D88" t="n">
-        <v>33329</v>
+        <v>29511</v>
       </c>
       <c r="E88" t="n">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
@@ -1868,10 +1868,10 @@
         <v>2025</v>
       </c>
       <c r="D89" t="n">
-        <v>16471</v>
+        <v>29140</v>
       </c>
       <c r="E89" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90">
@@ -1885,10 +1885,10 @@
         <v>2025</v>
       </c>
       <c r="D90" t="n">
-        <v>36420</v>
+        <v>45143</v>
       </c>
       <c r="E90" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91">
@@ -1902,10 +1902,10 @@
         <v>2025</v>
       </c>
       <c r="D91" t="n">
-        <v>45225</v>
+        <v>38788</v>
       </c>
       <c r="E91" t="n">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92">
@@ -1919,10 +1919,10 @@
         <v>2025</v>
       </c>
       <c r="D92" t="n">
-        <v>13297</v>
+        <v>17981</v>
       </c>
       <c r="E92" t="n">
-        <v>11</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93">
@@ -1936,10 +1936,10 @@
         <v>2025</v>
       </c>
       <c r="D93" t="n">
-        <v>16172</v>
+        <v>25061</v>
       </c>
       <c r="E93" t="n">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94">
@@ -1953,10 +1953,10 @@
         <v>2025</v>
       </c>
       <c r="D94" t="n">
-        <v>19386</v>
+        <v>31452</v>
       </c>
       <c r="E94" t="n">
-        <v>111</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95">
@@ -1970,10 +1970,10 @@
         <v>2025</v>
       </c>
       <c r="D95" t="n">
-        <v>17887</v>
+        <v>35658</v>
       </c>
       <c r="E95" t="n">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96">
@@ -1987,10 +1987,10 @@
         <v>2025</v>
       </c>
       <c r="D96" t="n">
-        <v>43523</v>
+        <v>32345</v>
       </c>
       <c r="E96" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97">
@@ -2004,10 +2004,10 @@
         <v>2025</v>
       </c>
       <c r="D97" t="n">
-        <v>33501</v>
+        <v>12086</v>
       </c>
       <c r="E97" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98">
@@ -2021,10 +2021,10 @@
         <v>2025</v>
       </c>
       <c r="D98" t="n">
-        <v>10106</v>
+        <v>30235</v>
       </c>
       <c r="E98" t="n">
-        <v>134</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99">
@@ -2038,10 +2038,10 @@
         <v>2025</v>
       </c>
       <c r="D99" t="n">
-        <v>10239</v>
+        <v>47397</v>
       </c>
       <c r="E99" t="n">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100">
@@ -2055,10 +2055,10 @@
         <v>2025</v>
       </c>
       <c r="D100" t="n">
-        <v>41754</v>
+        <v>35470</v>
       </c>
       <c r="E100" t="n">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
@@ -2072,10 +2072,10 @@
         <v>2025</v>
       </c>
       <c r="D101" t="n">
-        <v>25566</v>
+        <v>29613</v>
       </c>
       <c r="E101" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
